--- a/gmail_signup_testCases.xlsx
+++ b/gmail_signup_testCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8FD99-594E-473F-9B1F-FF158381903C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34296C66-B48E-4BBD-B326-1283371695B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,12 +415,6 @@
 4. Click on I agree button</t>
   </si>
   <si>
-    <t>1. Privacy and terms,more options,cancel and I agree button will be  present
-2. More options will open with radio button for different options
-3. Options for different settings can be selected
-4. Home page for Google account will open</t>
-  </si>
-  <si>
     <t>Chrome browser is open in windows pc</t>
   </si>
   <si>
@@ -550,6 +544,12 @@
   </si>
   <si>
     <t>Verify responsiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Privacy and terms,more options,cancel and I agree button will be  present
+2. More options will open with radio button for different options
+3. Options for different settings can be selected
+4. Home page for newly created Google account will open with welcome message </t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1016,8 @@
   </sheetPr>
   <dimension ref="A1:AB929"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1089,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>54</v>
@@ -1131,13 +1131,13 @@
         <v>56</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -1173,13 +1173,13 @@
         <v>57</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -1215,13 +1215,13 @@
         <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1251,13 +1251,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>63</v>
@@ -1299,7 +1299,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>60</v>
@@ -1341,13 +1341,13 @@
         <v>66</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -1383,13 +1383,13 @@
         <v>68</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -1428,10 +1428,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1515,7 +1515,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -1554,10 +1554,10 @@
         <v>73</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1590,16 +1590,16 @@
         <v>69</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1635,7 +1635,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>81</v>
@@ -1677,7 +1677,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>84</v>
@@ -1806,7 +1806,7 @@
         <v>94</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>95</v>
@@ -2044,7 +2044,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
     </row>
-    <row r="25" spans="1:28" s="14" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="14" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>111</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>115</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="26" spans="1:28" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>

--- a/gmail_signup_testCases.xlsx
+++ b/gmail_signup_testCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34296C66-B48E-4BBD-B326-1283371695B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19254E9-335C-495B-A3C7-6DB22077F18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Check signup link is working</t>
-  </si>
-  <si>
-    <t>1. Open link (https://accounts.google.com/signup/v2/webcreateaccount?flowName=GlifWebSignIn&amp;flowEntry=SignUp) in windows chrome browser</t>
   </si>
   <si>
     <t>1. Link for google/gmail  account create will open without error and Account create page with title "create your google account" will show</t>
@@ -551,6 +548,11 @@
 3. Options for different settings can be selected
 4. Home page for newly created Google account will open with welcome message </t>
   </si>
+  <si>
+    <t>Open link  
+  ( https://accounts.google.com/signup/v2/webcreateaccount?flowName=GlifWebSignIn&amp;flowEntry=SignUp ) 
+in chrome browser</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\+#\ ##########"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -601,6 +603,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -717,10 +725,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -796,8 +805,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1016,8 +1029,8 @@
   </sheetPr>
   <dimension ref="A1:AB929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1091,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" s="14" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="14" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1089,13 +1102,13 @@
         <v>53</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>54</v>
+      <c r="E2" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -1128,16 +1141,16 @@
         <v>43</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -1170,16 +1183,16 @@
         <v>44</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -1215,13 +1228,13 @@
         <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1251,19 +1264,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1299,13 +1312,13 @@
         <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -1335,19 +1348,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -1377,19 +1390,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -1422,16 +1435,16 @@
         <v>46</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1461,19 +1474,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -1503,19 +1516,19 @@
         <v>22</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -1545,19 +1558,19 @@
         <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1587,19 +1600,19 @@
         <v>24</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1635,13 +1648,13 @@
         <v>47</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1674,16 +1687,16 @@
         <v>45</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1716,16 +1729,16 @@
         <v>45</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>87</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -1758,16 +1771,16 @@
         <v>45</v>
       </c>
       <c r="C18" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="E18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1797,19 +1810,19 @@
         <v>36</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1839,19 +1852,19 @@
         <v>39</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>94</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1878,22 +1891,22 @@
     </row>
     <row r="21" spans="1:28" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>94</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1920,22 +1933,22 @@
     </row>
     <row r="22" spans="1:28" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="D22" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -1962,22 +1975,22 @@
     </row>
     <row r="23" spans="1:28" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>93</v>
+      <c r="D23" s="23" t="s">
+        <v>101</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="E23" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="24" t="s">
         <v>103</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -2004,22 +2017,22 @@
     </row>
     <row r="24" spans="1:28" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="D24" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -2046,22 +2059,22 @@
     </row>
     <row r="25" spans="1:28" s="14" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="D25" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="F25" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -2088,22 +2101,22 @@
     </row>
     <row r="26" spans="1:28" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -28351,7 +28364,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://accounts.google.com/signup/v2/webcreateaccount?flowName=GlifWebSignIn&amp;flowEntry=SignUp" xr:uid="{303142D5-6262-4020-9BCD-AF584254D576}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>